--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H2">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.31977579213493</v>
+        <v>2.752052</v>
       </c>
       <c r="N2">
-        <v>2.31977579213493</v>
+        <v>8.256156000000001</v>
       </c>
       <c r="O2">
-        <v>0.02856124330174807</v>
+        <v>0.03280208859538462</v>
       </c>
       <c r="P2">
-        <v>0.02856124330174807</v>
+        <v>0.03280208859538461</v>
       </c>
       <c r="Q2">
-        <v>62.63242105991041</v>
+        <v>89.51094722328135</v>
       </c>
       <c r="R2">
-        <v>62.63242105991041</v>
+        <v>805.5985250095321</v>
       </c>
       <c r="S2">
-        <v>0.001600221068219415</v>
+        <v>0.002089726426891004</v>
       </c>
       <c r="T2">
-        <v>0.001600221068219415</v>
+        <v>0.002089726426891004</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H3">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.6421365232684</v>
+        <v>50.954235</v>
       </c>
       <c r="N3">
-        <v>50.6421365232684</v>
+        <v>152.862705</v>
       </c>
       <c r="O3">
-        <v>0.6235095596157858</v>
+        <v>0.6073305776126496</v>
       </c>
       <c r="P3">
-        <v>0.6235095596157858</v>
+        <v>0.6073305776126494</v>
       </c>
       <c r="Q3">
-        <v>1367.304387282926</v>
+        <v>1657.294934793265</v>
       </c>
       <c r="R3">
-        <v>1367.304387282926</v>
+        <v>14915.65441313939</v>
       </c>
       <c r="S3">
-        <v>0.03493381303440397</v>
+        <v>0.03869127888626905</v>
       </c>
       <c r="T3">
-        <v>0.03493381303440397</v>
+        <v>0.03869127888626904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H4">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.59626983406058</v>
+        <v>6.94941</v>
       </c>
       <c r="N4">
-        <v>5.59626983406058</v>
+        <v>20.84823</v>
       </c>
       <c r="O4">
-        <v>0.06890166922801505</v>
+        <v>0.0828309793948849</v>
       </c>
       <c r="P4">
-        <v>0.06890166922801505</v>
+        <v>0.08283097939488489</v>
       </c>
       <c r="Q4">
-        <v>151.0956057909281</v>
+        <v>226.03071153559</v>
       </c>
       <c r="R4">
-        <v>151.0956057909281</v>
+        <v>2034.27640382031</v>
       </c>
       <c r="S4">
-        <v>0.003860402769210219</v>
+        <v>0.00527692272104619</v>
       </c>
       <c r="T4">
-        <v>0.003860402769210219</v>
+        <v>0.005276922721046189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H5">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I5">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J5">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0312294894342</v>
+        <v>10.09298766666667</v>
       </c>
       <c r="N5">
-        <v>10.0312294894342</v>
+        <v>30.278963</v>
       </c>
       <c r="O5">
-        <v>0.1235052055611483</v>
+        <v>0.1202997165875224</v>
       </c>
       <c r="P5">
-        <v>0.1235052055611483</v>
+        <v>0.1202997165875224</v>
       </c>
       <c r="Q5">
-        <v>270.8366003563714</v>
+        <v>328.2760959299567</v>
       </c>
       <c r="R5">
-        <v>270.8366003563714</v>
+        <v>2954.484863369611</v>
       </c>
       <c r="S5">
-        <v>0.006919713889402816</v>
+        <v>0.007663947866289699</v>
       </c>
       <c r="T5">
-        <v>0.006919713889402816</v>
+        <v>0.007663947866289698</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H6">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I6">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J6">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.98492694143719</v>
+        <v>4.050299666666667</v>
       </c>
       <c r="N6">
-        <v>3.98492694143719</v>
+        <v>12.150899</v>
       </c>
       <c r="O6">
-        <v>0.04906270179211283</v>
+        <v>0.04827608217572079</v>
       </c>
       <c r="P6">
-        <v>0.04906270179211283</v>
+        <v>0.04827608217572079</v>
       </c>
       <c r="Q6">
-        <v>107.590407200248</v>
+        <v>131.7366676579781</v>
       </c>
       <c r="R6">
-        <v>107.590407200248</v>
+        <v>1185.630008921803</v>
       </c>
       <c r="S6">
-        <v>0.00274887084718403</v>
+        <v>0.003075529913773851</v>
       </c>
       <c r="T6">
-        <v>0.00274887084718403</v>
+        <v>0.003075529913773851</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H7">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I7">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J7">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.64676820505978</v>
+        <v>9.099697666666666</v>
       </c>
       <c r="N7">
-        <v>8.64676820505978</v>
+        <v>27.299093</v>
       </c>
       <c r="O7">
-        <v>0.1064596205011899</v>
+        <v>0.1084605556338378</v>
       </c>
       <c r="P7">
-        <v>0.1064596205011899</v>
+        <v>0.1084605556338378</v>
       </c>
       <c r="Q7">
-        <v>233.4570560064063</v>
+        <v>295.9691741249134</v>
       </c>
       <c r="R7">
-        <v>233.4570560064063</v>
+        <v>2663.722567124221</v>
       </c>
       <c r="S7">
-        <v>0.005964688786157323</v>
+        <v>0.006909709079171372</v>
       </c>
       <c r="T7">
-        <v>0.005964688786157323</v>
+        <v>0.006909709079171371</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H8">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J8">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.31977579213493</v>
+        <v>2.752052</v>
       </c>
       <c r="N8">
-        <v>2.31977579213493</v>
+        <v>8.256156000000001</v>
       </c>
       <c r="O8">
-        <v>0.02856124330174807</v>
+        <v>0.03280208859538462</v>
       </c>
       <c r="P8">
-        <v>0.02856124330174807</v>
+        <v>0.03280208859538461</v>
       </c>
       <c r="Q8">
-        <v>27.87313451264759</v>
+        <v>33.45327536336401</v>
       </c>
       <c r="R8">
-        <v>27.87313451264759</v>
+        <v>301.0794782702761</v>
       </c>
       <c r="S8">
-        <v>0.0007121419917934779</v>
+        <v>0.0007810016066358948</v>
       </c>
       <c r="T8">
-        <v>0.0007121419917934779</v>
+        <v>0.0007810016066358946</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H9">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J9">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.6421365232684</v>
+        <v>50.954235</v>
       </c>
       <c r="N9">
-        <v>50.6421365232684</v>
+        <v>152.862705</v>
       </c>
       <c r="O9">
-        <v>0.6235095596157858</v>
+        <v>0.6073305776126496</v>
       </c>
       <c r="P9">
-        <v>0.6235095596157858</v>
+        <v>0.6073305776126494</v>
       </c>
       <c r="Q9">
-        <v>608.487720281728</v>
+        <v>619.3872987808951</v>
       </c>
       <c r="R9">
-        <v>608.487720281728</v>
+        <v>5574.485689028056</v>
       </c>
       <c r="S9">
-        <v>0.01554649897400943</v>
+        <v>0.01446024253898652</v>
       </c>
       <c r="T9">
-        <v>0.01554649897400943</v>
+        <v>0.01446024253898652</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H10">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J10">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.59626983406058</v>
+        <v>6.94941</v>
       </c>
       <c r="N10">
-        <v>5.59626983406058</v>
+        <v>20.84823</v>
       </c>
       <c r="O10">
-        <v>0.06890166922801505</v>
+        <v>0.0828309793948849</v>
       </c>
       <c r="P10">
-        <v>0.06890166922801505</v>
+        <v>0.08283097939488489</v>
       </c>
       <c r="Q10">
-        <v>67.24166291531402</v>
+        <v>84.47533925337001</v>
       </c>
       <c r="R10">
-        <v>67.24166291531402</v>
+        <v>760.2780532803301</v>
       </c>
       <c r="S10">
-        <v>0.001717984453391455</v>
+        <v>0.001972164906466721</v>
       </c>
       <c r="T10">
-        <v>0.001717984453391455</v>
+        <v>0.001972164906466721</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H11">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J11">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.0312294894342</v>
+        <v>10.09298766666667</v>
       </c>
       <c r="N11">
-        <v>10.0312294894342</v>
+        <v>30.278963</v>
       </c>
       <c r="O11">
-        <v>0.1235052055611483</v>
+        <v>0.1202997165875224</v>
       </c>
       <c r="P11">
-        <v>0.1235052055611483</v>
+        <v>0.1202997165875224</v>
       </c>
       <c r="Q11">
-        <v>120.5296692181248</v>
+        <v>122.687905479997</v>
       </c>
       <c r="R11">
-        <v>120.5296692181248</v>
+        <v>1104.191149319973</v>
       </c>
       <c r="S11">
-        <v>0.003079461288010385</v>
+        <v>0.002864277122460962</v>
       </c>
       <c r="T11">
-        <v>0.003079461288010385</v>
+        <v>0.002864277122460962</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H12">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I12">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J12">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.98492694143719</v>
+        <v>4.050299666666667</v>
       </c>
       <c r="N12">
-        <v>3.98492694143719</v>
+        <v>12.150899</v>
       </c>
       <c r="O12">
-        <v>0.04906270179211283</v>
+        <v>0.04827608217572079</v>
       </c>
       <c r="P12">
-        <v>0.04906270179211283</v>
+        <v>0.04827608217572079</v>
       </c>
       <c r="Q12">
-        <v>47.88066374273622</v>
+        <v>49.234458525181</v>
       </c>
       <c r="R12">
-        <v>47.88066374273622</v>
+        <v>443.1101267266291</v>
       </c>
       <c r="S12">
-        <v>0.001223322451612819</v>
+        <v>0.001149429788035798</v>
       </c>
       <c r="T12">
-        <v>0.001223322451612819</v>
+        <v>0.001149429788035798</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H13">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I13">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J13">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.64676820505978</v>
+        <v>9.099697666666666</v>
       </c>
       <c r="N13">
-        <v>8.64676820505978</v>
+        <v>27.299093</v>
       </c>
       <c r="O13">
-        <v>0.1064596205011899</v>
+        <v>0.1084605556338378</v>
       </c>
       <c r="P13">
-        <v>0.1064596205011899</v>
+        <v>0.1084605556338378</v>
       </c>
       <c r="Q13">
-        <v>103.8947531465994</v>
+        <v>110.613713609467</v>
       </c>
       <c r="R13">
-        <v>103.8947531465994</v>
+        <v>995.5234224852031</v>
       </c>
       <c r="S13">
-        <v>0.002654449086418272</v>
+        <v>0.002582392519315612</v>
       </c>
       <c r="T13">
-        <v>0.002654449086418272</v>
+        <v>0.002582392519315611</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H14">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I14">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J14">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.31977579213493</v>
+        <v>2.752052</v>
       </c>
       <c r="N14">
-        <v>2.31977579213493</v>
+        <v>8.256156000000001</v>
       </c>
       <c r="O14">
-        <v>0.02856124330174807</v>
+        <v>0.03280208859538462</v>
       </c>
       <c r="P14">
-        <v>0.02856124330174807</v>
+        <v>0.03280208859538461</v>
       </c>
       <c r="Q14">
-        <v>314.0618227313271</v>
+        <v>415.7446779776187</v>
       </c>
       <c r="R14">
-        <v>314.0618227313271</v>
+        <v>3741.702101798568</v>
       </c>
       <c r="S14">
-        <v>0.008024092585808463</v>
+        <v>0.009705993147876683</v>
       </c>
       <c r="T14">
-        <v>0.008024092585808463</v>
+        <v>0.009705993147876681</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H15">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I15">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J15">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.6421365232684</v>
+        <v>50.954235</v>
       </c>
       <c r="N15">
-        <v>50.6421365232684</v>
+        <v>152.862705</v>
       </c>
       <c r="O15">
-        <v>0.6235095596157858</v>
+        <v>0.6073305776126496</v>
       </c>
       <c r="P15">
-        <v>0.6235095596157858</v>
+        <v>0.6073305776126494</v>
       </c>
       <c r="Q15">
-        <v>6856.163322951551</v>
+        <v>7697.511537453111</v>
       </c>
       <c r="R15">
-        <v>6856.163322951551</v>
+        <v>69277.603837078</v>
       </c>
       <c r="S15">
-        <v>0.1751708909040215</v>
+        <v>0.179706435694274</v>
       </c>
       <c r="T15">
-        <v>0.1751708909040215</v>
+        <v>0.179706435694274</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H16">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I16">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J16">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.59626983406058</v>
+        <v>6.94941</v>
       </c>
       <c r="N16">
-        <v>5.59626983406058</v>
+        <v>20.84823</v>
       </c>
       <c r="O16">
-        <v>0.06890166922801505</v>
+        <v>0.0828309793948849</v>
       </c>
       <c r="P16">
-        <v>0.06890166922801505</v>
+        <v>0.08283097939488489</v>
       </c>
       <c r="Q16">
-        <v>757.6485238531957</v>
+        <v>1049.82762774266</v>
       </c>
       <c r="R16">
-        <v>757.6485238531957</v>
+        <v>9448.44864968394</v>
       </c>
       <c r="S16">
-        <v>0.01935746869844789</v>
+        <v>0.02450932098731626</v>
       </c>
       <c r="T16">
-        <v>0.01935746869844789</v>
+        <v>0.02450932098731626</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H17">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I17">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J17">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.0312294894342</v>
+        <v>10.09298766666667</v>
       </c>
       <c r="N17">
-        <v>10.0312294894342</v>
+        <v>30.278963</v>
       </c>
       <c r="O17">
-        <v>0.1235052055611483</v>
+        <v>0.1202997165875224</v>
       </c>
       <c r="P17">
-        <v>0.1235052055611483</v>
+        <v>0.1202997165875224</v>
       </c>
       <c r="Q17">
-        <v>1358.073581235432</v>
+        <v>1524.718975989701</v>
       </c>
       <c r="R17">
-        <v>1358.073581235432</v>
+        <v>13722.47078390731</v>
       </c>
       <c r="S17">
-        <v>0.03469797143569398</v>
+        <v>0.0355961548452829</v>
       </c>
       <c r="T17">
-        <v>0.03469797143569398</v>
+        <v>0.0355961548452829</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H18">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I18">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J18">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.98492694143719</v>
+        <v>4.050299666666667</v>
       </c>
       <c r="N18">
-        <v>3.98492694143719</v>
+        <v>12.150899</v>
       </c>
       <c r="O18">
-        <v>0.04906270179211283</v>
+        <v>0.04827608217572079</v>
       </c>
       <c r="P18">
-        <v>0.04906270179211283</v>
+        <v>0.04827608217572079</v>
       </c>
       <c r="Q18">
-        <v>539.4975768443323</v>
+        <v>611.8672650920802</v>
       </c>
       <c r="R18">
-        <v>539.4975768443323</v>
+        <v>5506.805385828722</v>
       </c>
       <c r="S18">
-        <v>0.01378384188428271</v>
+        <v>0.01428467950878612</v>
       </c>
       <c r="T18">
-        <v>0.01378384188428271</v>
+        <v>0.01428467950878612</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H19">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I19">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J19">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.64676820505978</v>
+        <v>9.099697666666666</v>
       </c>
       <c r="N19">
-        <v>8.64676820505978</v>
+        <v>27.299093</v>
       </c>
       <c r="O19">
-        <v>0.1064596205011899</v>
+        <v>0.1084605556338378</v>
       </c>
       <c r="P19">
-        <v>0.1064596205011899</v>
+        <v>0.1084605556338378</v>
       </c>
       <c r="Q19">
-        <v>1170.638900717698</v>
+        <v>1374.665477295495</v>
       </c>
       <c r="R19">
-        <v>1170.638900717698</v>
+        <v>12371.98929565945</v>
       </c>
       <c r="S19">
-        <v>0.02990912694263899</v>
+        <v>0.03209299940568568</v>
       </c>
       <c r="T19">
-        <v>0.02990912694263899</v>
+        <v>0.03209299940568567</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H20">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I20">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J20">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.31977579213493</v>
+        <v>2.752052</v>
       </c>
       <c r="N20">
-        <v>2.31977579213493</v>
+        <v>8.256156000000001</v>
       </c>
       <c r="O20">
-        <v>0.02856124330174807</v>
+        <v>0.03280208859538462</v>
       </c>
       <c r="P20">
-        <v>0.02856124330174807</v>
+        <v>0.03280208859538461</v>
       </c>
       <c r="Q20">
-        <v>371.4153507949434</v>
+        <v>447.0953351586961</v>
       </c>
       <c r="R20">
-        <v>371.4153507949434</v>
+        <v>4023.858016428265</v>
       </c>
       <c r="S20">
-        <v>0.009489441080900529</v>
+        <v>0.0104379069399213</v>
       </c>
       <c r="T20">
-        <v>0.009489441080900529</v>
+        <v>0.0104379069399213</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H21">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I21">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J21">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.6421365232684</v>
+        <v>50.954235</v>
       </c>
       <c r="N21">
-        <v>50.6421365232684</v>
+        <v>152.862705</v>
       </c>
       <c r="O21">
-        <v>0.6235095596157858</v>
+        <v>0.6073305776126496</v>
       </c>
       <c r="P21">
-        <v>0.6235095596157858</v>
+        <v>0.6073305776126494</v>
       </c>
       <c r="Q21">
-        <v>8108.226219778186</v>
+        <v>8277.96886653303</v>
       </c>
       <c r="R21">
-        <v>8108.226219778186</v>
+        <v>74501.71979879728</v>
       </c>
       <c r="S21">
-        <v>0.2071603524693235</v>
+        <v>0.1932578174848734</v>
       </c>
       <c r="T21">
-        <v>0.2071603524693235</v>
+        <v>0.1932578174848734</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H22">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I22">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J22">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.59626983406058</v>
+        <v>6.94941</v>
       </c>
       <c r="N22">
-        <v>5.59626983406058</v>
+        <v>20.84823</v>
       </c>
       <c r="O22">
-        <v>0.06890166922801505</v>
+        <v>0.0828309793948849</v>
       </c>
       <c r="P22">
-        <v>0.06890166922801505</v>
+        <v>0.08283097939488489</v>
       </c>
       <c r="Q22">
-        <v>896.0092309816947</v>
+        <v>1128.99349035018</v>
       </c>
       <c r="R22">
-        <v>896.0092309816947</v>
+        <v>10160.94141315162</v>
       </c>
       <c r="S22">
-        <v>0.02289250238889034</v>
+        <v>0.02635753062346151</v>
       </c>
       <c r="T22">
-        <v>0.02289250238889034</v>
+        <v>0.02635753062346151</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H23">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I23">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J23">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.0312294894342</v>
+        <v>10.09298766666667</v>
       </c>
       <c r="N23">
-        <v>10.0312294894342</v>
+        <v>30.278963</v>
       </c>
       <c r="O23">
-        <v>0.1235052055611483</v>
+        <v>0.1202997165875224</v>
       </c>
       <c r="P23">
-        <v>0.1235052055611483</v>
+        <v>0.1202997165875224</v>
       </c>
       <c r="Q23">
-        <v>1606.08306731829</v>
+        <v>1639.695653854258</v>
       </c>
       <c r="R23">
-        <v>1606.08306731829</v>
+        <v>14757.26088468832</v>
       </c>
       <c r="S23">
-        <v>0.04103446614613217</v>
+        <v>0.03828040531590249</v>
       </c>
       <c r="T23">
-        <v>0.04103446614613217</v>
+        <v>0.03828040531590249</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H24">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I24">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J24">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.98492694143719</v>
+        <v>4.050299666666667</v>
       </c>
       <c r="N24">
-        <v>3.98492694143719</v>
+        <v>12.150899</v>
       </c>
       <c r="O24">
-        <v>0.04906270179211283</v>
+        <v>0.04827608217572079</v>
       </c>
       <c r="P24">
-        <v>0.04906270179211283</v>
+        <v>0.04827608217572079</v>
       </c>
       <c r="Q24">
-        <v>638.0198650508321</v>
+        <v>658.0072204164341</v>
       </c>
       <c r="R24">
-        <v>638.0198650508321</v>
+        <v>5922.064983747907</v>
       </c>
       <c r="S24">
-        <v>0.01630102769011992</v>
+        <v>0.01536186489189191</v>
       </c>
       <c r="T24">
-        <v>0.01630102769011992</v>
+        <v>0.01536186489189192</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H25">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I25">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J25">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.64676820505978</v>
+        <v>9.099697666666666</v>
       </c>
       <c r="N25">
-        <v>8.64676820505978</v>
+        <v>27.299093</v>
       </c>
       <c r="O25">
-        <v>0.1064596205011899</v>
+        <v>0.1084605556338378</v>
       </c>
       <c r="P25">
-        <v>0.1064596205011899</v>
+        <v>0.1084605556338378</v>
       </c>
       <c r="Q25">
-        <v>1384.419329235781</v>
+        <v>1478.326855059838</v>
       </c>
       <c r="R25">
-        <v>1384.419329235781</v>
+        <v>13304.94169553854</v>
       </c>
       <c r="S25">
-        <v>0.03537108961146801</v>
+        <v>0.03451308239309637</v>
       </c>
       <c r="T25">
-        <v>0.03537108961146801</v>
+        <v>0.03451308239309637</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H26">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I26">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J26">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.31977579213493</v>
+        <v>2.752052</v>
       </c>
       <c r="N26">
-        <v>2.31977579213493</v>
+        <v>8.256156000000001</v>
       </c>
       <c r="O26">
-        <v>0.02856124330174807</v>
+        <v>0.03280208859538462</v>
       </c>
       <c r="P26">
-        <v>0.02856124330174807</v>
+        <v>0.03280208859538461</v>
       </c>
       <c r="Q26">
-        <v>320.3179724138531</v>
+        <v>392.4200190183788</v>
       </c>
       <c r="R26">
-        <v>320.3179724138531</v>
+        <v>3531.780171165408</v>
       </c>
       <c r="S26">
-        <v>0.008183933485433533</v>
+        <v>0.009161454655799747</v>
       </c>
       <c r="T26">
-        <v>0.008183933485433533</v>
+        <v>0.009161454655799746</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H27">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I27">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J27">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>50.6421365232684</v>
+        <v>50.954235</v>
       </c>
       <c r="N27">
-        <v>50.6421365232684</v>
+        <v>152.862705</v>
       </c>
       <c r="O27">
-        <v>0.6235095596157858</v>
+        <v>0.6073305776126496</v>
       </c>
       <c r="P27">
-        <v>0.6235095596157858</v>
+        <v>0.6073305776126494</v>
       </c>
       <c r="Q27">
-        <v>6992.738929700557</v>
+        <v>7265.655542761161</v>
       </c>
       <c r="R27">
-        <v>6992.738929700557</v>
+        <v>65390.89988485044</v>
       </c>
       <c r="S27">
-        <v>0.1786603163425744</v>
+        <v>0.1696243070528698</v>
       </c>
       <c r="T27">
-        <v>0.1786603163425744</v>
+        <v>0.1696243070528697</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H28">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I28">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J28">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.59626983406058</v>
+        <v>6.94941</v>
       </c>
       <c r="N28">
-        <v>5.59626983406058</v>
+        <v>20.84823</v>
       </c>
       <c r="O28">
-        <v>0.06890166922801505</v>
+        <v>0.0828309793948849</v>
       </c>
       <c r="P28">
-        <v>0.06890166922801505</v>
+        <v>0.08283097939488489</v>
       </c>
       <c r="Q28">
-        <v>772.7409745393314</v>
+        <v>990.9288067109601</v>
       </c>
       <c r="R28">
-        <v>772.7409745393314</v>
+        <v>8918.35926039864</v>
       </c>
       <c r="S28">
-        <v>0.01974307182779068</v>
+        <v>0.02313426657619889</v>
       </c>
       <c r="T28">
-        <v>0.01974307182779068</v>
+        <v>0.02313426657619889</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H29">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I29">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J29">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.0312294894342</v>
+        <v>10.09298766666667</v>
       </c>
       <c r="N29">
-        <v>10.0312294894342</v>
+        <v>30.278963</v>
       </c>
       <c r="O29">
-        <v>0.1235052055611483</v>
+        <v>0.1202997165875224</v>
       </c>
       <c r="P29">
-        <v>0.1235052055611483</v>
+        <v>0.1202997165875224</v>
       </c>
       <c r="Q29">
-        <v>1385.126572045338</v>
+        <v>1439.177171109265</v>
       </c>
       <c r="R29">
-        <v>1385.126572045338</v>
+        <v>12952.59453998338</v>
       </c>
       <c r="S29">
-        <v>0.03538915924417656</v>
+        <v>0.03359909218638047</v>
       </c>
       <c r="T29">
-        <v>0.03538915924417656</v>
+        <v>0.03359909218638046</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H30">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I30">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J30">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.98492694143719</v>
+        <v>4.050299666666667</v>
       </c>
       <c r="N30">
-        <v>3.98492694143719</v>
+        <v>12.150899</v>
       </c>
       <c r="O30">
-        <v>0.04906270179211283</v>
+        <v>0.04827608217572079</v>
       </c>
       <c r="P30">
-        <v>0.04906270179211283</v>
+        <v>0.04827608217572079</v>
       </c>
       <c r="Q30">
-        <v>550.2444341501489</v>
+        <v>577.5394768062035</v>
       </c>
       <c r="R30">
-        <v>550.2444341501489</v>
+        <v>5197.855291255833</v>
       </c>
       <c r="S30">
-        <v>0.01405841769002181</v>
+        <v>0.01348326148581767</v>
       </c>
       <c r="T30">
-        <v>0.01405841769002181</v>
+        <v>0.01348326148581767</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H31">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I31">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J31">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.64676820505978</v>
+        <v>9.099697666666666</v>
       </c>
       <c r="N31">
-        <v>8.64676820505978</v>
+        <v>27.299093</v>
       </c>
       <c r="O31">
-        <v>0.1064596205011899</v>
+        <v>0.1084605556338378</v>
       </c>
       <c r="P31">
-        <v>0.1064596205011899</v>
+        <v>0.1084605556338378</v>
       </c>
       <c r="Q31">
-        <v>1193.958169909301</v>
+        <v>1297.542172682358</v>
       </c>
       <c r="R31">
-        <v>1193.958169909301</v>
+        <v>11677.87955414122</v>
       </c>
       <c r="S31">
-        <v>0.03050492038674344</v>
+        <v>0.03029247541639962</v>
       </c>
       <c r="T31">
-        <v>0.03050492038674344</v>
+        <v>0.03029247541639962</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H32">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I32">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J32">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.31977579213493</v>
+        <v>2.752052</v>
       </c>
       <c r="N32">
-        <v>2.31977579213493</v>
+        <v>8.256156000000001</v>
       </c>
       <c r="O32">
-        <v>0.02856124330174807</v>
+        <v>0.03280208859538462</v>
       </c>
       <c r="P32">
-        <v>0.02856124330174807</v>
+        <v>0.03280208859538461</v>
       </c>
       <c r="Q32">
-        <v>21.58222853779946</v>
+        <v>26.81421502770667</v>
       </c>
       <c r="R32">
-        <v>21.58222853779946</v>
+        <v>241.32793524936</v>
       </c>
       <c r="S32">
-        <v>0.0005514130895926507</v>
+        <v>0.0006260058182599844</v>
       </c>
       <c r="T32">
-        <v>0.0005514130895926507</v>
+        <v>0.0006260058182599843</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H33">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I33">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J33">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>50.6421365232684</v>
+        <v>50.954235</v>
       </c>
       <c r="N33">
-        <v>50.6421365232684</v>
+        <v>152.862705</v>
       </c>
       <c r="O33">
-        <v>0.6235095596157858</v>
+        <v>0.6073305776126496</v>
       </c>
       <c r="P33">
-        <v>0.6235095596157858</v>
+        <v>0.6073305776126494</v>
       </c>
       <c r="Q33">
-        <v>471.1533622315027</v>
+        <v>496.4651154347001</v>
       </c>
       <c r="R33">
-        <v>471.1533622315027</v>
+        <v>4468.1860389123</v>
       </c>
       <c r="S33">
-        <v>0.01203768789145292</v>
+        <v>0.01159049595537676</v>
       </c>
       <c r="T33">
-        <v>0.01203768789145292</v>
+        <v>0.01159049595537676</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H34">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I34">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J34">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.59626983406058</v>
+        <v>6.94941</v>
       </c>
       <c r="N34">
-        <v>5.59626983406058</v>
+        <v>20.84823</v>
       </c>
       <c r="O34">
-        <v>0.06890166922801505</v>
+        <v>0.0828309793948849</v>
       </c>
       <c r="P34">
-        <v>0.06890166922801505</v>
+        <v>0.08283097939488489</v>
       </c>
       <c r="Q34">
-        <v>52.06536550962652</v>
+        <v>67.71055708820001</v>
       </c>
       <c r="R34">
-        <v>52.06536550962652</v>
+        <v>609.3950137938001</v>
       </c>
       <c r="S34">
-        <v>0.001330239090284466</v>
+        <v>0.001580773580395326</v>
       </c>
       <c r="T34">
-        <v>0.001330239090284466</v>
+        <v>0.001580773580395326</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H35">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I35">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J35">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.0312294894342</v>
+        <v>10.09298766666667</v>
       </c>
       <c r="N35">
-        <v>10.0312294894342</v>
+        <v>30.278963</v>
       </c>
       <c r="O35">
-        <v>0.1235052055611483</v>
+        <v>0.1202997165875224</v>
       </c>
       <c r="P35">
-        <v>0.1235052055611483</v>
+        <v>0.1202997165875224</v>
       </c>
       <c r="Q35">
-        <v>93.3263844247797</v>
+        <v>98.33954502530888</v>
       </c>
       <c r="R35">
-        <v>93.3263844247797</v>
+        <v>885.0559052277799</v>
       </c>
       <c r="S35">
-        <v>0.002384433557732415</v>
+        <v>0.002295839251205862</v>
       </c>
       <c r="T35">
-        <v>0.002384433557732415</v>
+        <v>0.002295839251205862</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H36">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I36">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J36">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.98492694143719</v>
+        <v>4.050299666666667</v>
       </c>
       <c r="N36">
-        <v>3.98492694143719</v>
+        <v>12.150899</v>
       </c>
       <c r="O36">
-        <v>0.04906270179211283</v>
+        <v>0.04827608217572079</v>
       </c>
       <c r="P36">
-        <v>0.04906270179211283</v>
+        <v>0.04827608217572079</v>
       </c>
       <c r="Q36">
-        <v>37.0741018369629</v>
+        <v>39.46350075821555</v>
       </c>
       <c r="R36">
-        <v>37.0741018369629</v>
+        <v>355.17150682394</v>
       </c>
       <c r="S36">
-        <v>0.0009472212288915311</v>
+        <v>0.0009213165874154296</v>
       </c>
       <c r="T36">
-        <v>0.0009472212288915311</v>
+        <v>0.0009213165874154298</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H37">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I37">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J37">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.64676820505978</v>
+        <v>9.099697666666666</v>
       </c>
       <c r="N37">
-        <v>8.64676820505978</v>
+        <v>27.299093</v>
       </c>
       <c r="O37">
-        <v>0.1064596205011899</v>
+        <v>0.1084605556338378</v>
       </c>
       <c r="P37">
-        <v>0.1064596205011899</v>
+        <v>0.1084605556338378</v>
       </c>
       <c r="Q37">
-        <v>80.4459328128568</v>
+        <v>88.66156959284221</v>
       </c>
       <c r="R37">
-        <v>80.4459328128568</v>
+        <v>797.95412633558</v>
       </c>
       <c r="S37">
-        <v>0.002055345687763856</v>
+        <v>0.002069896820169145</v>
       </c>
       <c r="T37">
-        <v>0.002055345687763856</v>
+        <v>0.002069896820169145</v>
       </c>
     </row>
   </sheetData>
